--- a/week-1/Exercises/1-3-A-conditional-logic-exercises.xlsx
+++ b/week-1/Exercises/1-3-A-conditional-logic-exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\data-analytics-lectures\week-1\Exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-1\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFDFB36-C756-4992-A37C-FE5CED5B0A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CB9E51-7D37-492B-8AE4-2FBD356BF8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>Chicago White Sox</t>
   </si>
   <si>
-    <t>What formula would give the total number of home runs hit in the 2017 season?</t>
-  </si>
-  <si>
     <t>Cleveland Indians</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
   </si>
   <si>
     <t>Kansas City Royals</t>
-  </si>
-  <si>
-    <t>What formula would give the total number of home runs hit in the 2017 season for teams that won more than 81 games?</t>
   </si>
   <si>
     <t>Minnesota Twins</t>
@@ -202,6 +196,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://rdrr.io/cran/Ecdat/man/Housing.html  </t>
+  </si>
+  <si>
+    <t>What formula would give the average number of home runs hit in the 2017 season?</t>
+  </si>
+  <si>
+    <t>What formula would give the average number of home runs hit in the 2017 season for teams that won more than 81 games?</t>
   </si>
 </sst>
 </file>
@@ -642,16 +642,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.52734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,12 +657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -672,7 +670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -680,14 +678,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -707,18 +705,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.64453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.52734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.64453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -735,7 +733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -746,7 +744,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -757,7 +755,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -768,7 +766,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -779,7 +777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -790,7 +788,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -801,7 +799,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -812,7 +810,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -823,7 +821,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -834,7 +832,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -845,7 +843,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -856,7 +854,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -867,7 +865,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -878,7 +876,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -889,7 +887,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -911,26 +909,26 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
@@ -948,13 +946,13 @@
         <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>42000</v>
       </c>
@@ -992,7 +990,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>38500</v>
       </c>
@@ -1030,7 +1028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>49500</v>
       </c>
@@ -1068,7 +1066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>60500</v>
       </c>
@@ -1106,7 +1104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>61000</v>
       </c>
@@ -1144,7 +1142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>66000</v>
       </c>
@@ -1182,7 +1180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>66000</v>
       </c>
@@ -1220,7 +1218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>69000</v>
       </c>
@@ -1258,7 +1256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>83800</v>
       </c>
@@ -1296,7 +1294,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>88500</v>
       </c>
@@ -1334,7 +1332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>90000</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>30500</v>
       </c>
@@ -1410,7 +1408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>27000</v>
       </c>
@@ -1448,7 +1446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>36000</v>
       </c>
@@ -1486,7 +1484,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>37000</v>
       </c>
@@ -1524,7 +1522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>37900</v>
       </c>
@@ -1562,7 +1560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>40500</v>
       </c>
@@ -1600,7 +1598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>40750</v>
       </c>
@@ -1638,7 +1636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>45000</v>
       </c>
@@ -1676,7 +1674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>45000</v>
       </c>
@@ -1714,7 +1712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>48500</v>
       </c>
@@ -1752,7 +1750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>65900</v>
       </c>
@@ -1790,7 +1788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>37900</v>
       </c>
@@ -1828,7 +1826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>38000</v>
       </c>
@@ -1866,7 +1864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>42000</v>
       </c>
@@ -1904,7 +1902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>42300</v>
       </c>
@@ -1942,7 +1940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>43500</v>
       </c>
@@ -1980,7 +1978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>44000</v>
       </c>
@@ -2018,7 +2016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>44500</v>
       </c>
@@ -2056,7 +2054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>44900</v>
       </c>
@@ -2094,7 +2092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>45000</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>48000</v>
       </c>
@@ -2170,7 +2168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>49000</v>
       </c>
@@ -2208,7 +2206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>51500</v>
       </c>
@@ -2246,7 +2244,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>61000</v>
       </c>
@@ -2284,7 +2282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>61000</v>
       </c>
@@ -2322,7 +2320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>61700</v>
       </c>
@@ -2360,7 +2358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>67000</v>
       </c>
@@ -2398,7 +2396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>82000</v>
       </c>
@@ -2436,7 +2434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>54500</v>
       </c>
@@ -2474,7 +2472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>66500</v>
       </c>
@@ -2512,7 +2510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>70000</v>
       </c>
@@ -2550,7 +2548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>82000</v>
       </c>
@@ -2588,7 +2586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>92000</v>
       </c>
@@ -2626,7 +2624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>38000</v>
       </c>
@@ -2664,7 +2662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>44000</v>
       </c>
@@ -2702,7 +2700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>41000</v>
       </c>
@@ -2740,7 +2738,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>43000</v>
       </c>
@@ -2778,7 +2776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>48000</v>
       </c>
@@ -2816,7 +2814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>54800</v>
       </c>
@@ -2854,7 +2852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>55000</v>
       </c>
@@ -2892,7 +2890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>57000</v>
       </c>
@@ -2930,7 +2928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>68000</v>
       </c>
@@ -2968,7 +2966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>95000</v>
       </c>
@@ -3006,7 +3004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>38000</v>
       </c>
@@ -3044,7 +3042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>25000</v>
       </c>
@@ -3082,7 +3080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>25245</v>
       </c>
@@ -3120,7 +3118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>56000</v>
       </c>
@@ -3158,7 +3156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>35500</v>
       </c>
@@ -3196,7 +3194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>30000</v>
       </c>
@@ -3234,7 +3232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>48000</v>
       </c>
@@ -3272,7 +3270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>48000</v>
       </c>
@@ -3310,7 +3308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>52000</v>
       </c>
@@ -3348,7 +3346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>54000</v>
       </c>
@@ -3386,7 +3384,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>56000</v>
       </c>
@@ -3424,7 +3422,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>60000</v>
       </c>
@@ -3462,7 +3460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>60000</v>
       </c>
@@ -3500,7 +3498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>67000</v>
       </c>
@@ -3538,7 +3536,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>47000</v>
       </c>
@@ -3576,7 +3574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>70000</v>
       </c>
@@ -3614,7 +3612,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>45000</v>
       </c>
@@ -3652,7 +3650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>51000</v>
       </c>
@@ -3690,7 +3688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>32500</v>
       </c>
@@ -3728,7 +3726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>34000</v>
       </c>
@@ -3766,7 +3764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>35000</v>
       </c>
@@ -3804,7 +3802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>36000</v>
       </c>
@@ -3842,7 +3840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>45000</v>
       </c>
@@ -3880,7 +3878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>47000</v>
       </c>
@@ -3918,7 +3916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>55000</v>
       </c>
@@ -3956,7 +3954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>63900</v>
       </c>
@@ -3994,7 +3992,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>50000</v>
       </c>
@@ -4032,7 +4030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>35000</v>
       </c>
@@ -4070,7 +4068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>50000</v>
       </c>
@@ -4108,7 +4106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>43000</v>
       </c>
@@ -4146,7 +4144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>55500</v>
       </c>
@@ -4184,7 +4182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>57000</v>
       </c>
@@ -4222,7 +4220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>60000</v>
       </c>
@@ -4260,7 +4258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>78000</v>
       </c>
@@ -4298,7 +4296,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>35000</v>
       </c>
@@ -4336,7 +4334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>44000</v>
       </c>
@@ -4374,7 +4372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>47000</v>
       </c>
@@ -4412,7 +4410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>58000</v>
       </c>
@@ -4450,7 +4448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>163000</v>
       </c>
@@ -4488,7 +4486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>128000</v>
       </c>
@@ -4526,7 +4524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>123500</v>
       </c>
@@ -4564,7 +4562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>39000</v>
       </c>
@@ -4602,7 +4600,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>53900</v>
       </c>
@@ -4640,7 +4638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>59900</v>
       </c>
@@ -4678,7 +4676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>35000</v>
       </c>
@@ -4716,7 +4714,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>43000</v>
       </c>
@@ -4754,7 +4752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>57000</v>
       </c>
@@ -4792,7 +4790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>79000</v>
       </c>
@@ -4830,7 +4828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>125000</v>
       </c>
@@ -4868,7 +4866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>132000</v>
       </c>
@@ -4906,7 +4904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>58000</v>
       </c>
@@ -4944,7 +4942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>43000</v>
       </c>
@@ -4982,7 +4980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>48000</v>
       </c>
@@ -5020,7 +5018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>58500</v>
       </c>
@@ -5058,7 +5056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>73000</v>
       </c>
@@ -5096,7 +5094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>63500</v>
       </c>
@@ -5134,7 +5132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>43000</v>
       </c>
@@ -5172,7 +5170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>46500</v>
       </c>
@@ -5210,7 +5208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>92000</v>
       </c>
@@ -5248,7 +5246,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>75000</v>
       </c>
@@ -5286,7 +5284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>75000</v>
       </c>
@@ -5324,7 +5322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>85000</v>
       </c>
@@ -5362,7 +5360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>93000</v>
       </c>
@@ -5400,7 +5398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>94500</v>
       </c>
@@ -5438,7 +5436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>106500</v>
       </c>
@@ -5476,7 +5474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>116000</v>
       </c>
@@ -5514,7 +5512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>61500</v>
       </c>
@@ -5552,7 +5550,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>80000</v>
       </c>
@@ -5590,7 +5588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>37000</v>
       </c>
@@ -5628,7 +5626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>59500</v>
       </c>
@@ -5666,7 +5664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>70000</v>
       </c>
@@ -5704,7 +5702,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>95000</v>
       </c>
@@ -5742,7 +5740,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>117000</v>
       </c>
@@ -5780,7 +5778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>122500</v>
       </c>
@@ -5818,7 +5816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>123500</v>
       </c>
@@ -5856,7 +5854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>127000</v>
       </c>
@@ -5894,7 +5892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>35000</v>
       </c>
@@ -5932,7 +5930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>44500</v>
       </c>
@@ -5970,7 +5968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>49900</v>
       </c>
@@ -6008,7 +6006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>50500</v>
       </c>
@@ -6046,7 +6044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>65000</v>
       </c>
@@ -6084,7 +6082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>90000</v>
       </c>
@@ -6122,7 +6120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>46000</v>
       </c>
@@ -6160,7 +6158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>35000</v>
       </c>
@@ -6198,7 +6196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>26500</v>
       </c>
@@ -6236,7 +6234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>43000</v>
       </c>
@@ -6274,7 +6272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>56000</v>
       </c>
@@ -6312,7 +6310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>40000</v>
       </c>
@@ -6350,7 +6348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>51000</v>
       </c>
@@ -6388,7 +6386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>51000</v>
       </c>
@@ -6426,7 +6424,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>57250</v>
       </c>
@@ -6464,7 +6462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>44000</v>
       </c>
@@ -6502,7 +6500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>61000</v>
       </c>
@@ -6540,7 +6538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>62000</v>
       </c>
@@ -6578,7 +6576,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>80000</v>
       </c>
@@ -6616,7 +6614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>50000</v>
       </c>
@@ -6654,7 +6652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>59900</v>
       </c>
@@ -6692,7 +6690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>35500</v>
       </c>
@@ -6730,7 +6728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>37000</v>
       </c>
@@ -6768,7 +6766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>42000</v>
       </c>
@@ -6806,7 +6804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>48000</v>
       </c>
@@ -6844,7 +6842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>60000</v>
       </c>
@@ -6882,7 +6880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>60000</v>
       </c>
@@ -6920,7 +6918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>60000</v>
       </c>
@@ -6958,7 +6956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>62000</v>
       </c>
@@ -6996,7 +6994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>63000</v>
       </c>
@@ -7034,7 +7032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>63900</v>
       </c>
@@ -7072,7 +7070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>130000</v>
       </c>
@@ -7110,7 +7108,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>25000</v>
       </c>
@@ -7148,7 +7146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>50000</v>
       </c>
@@ -7186,7 +7184,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>52900</v>
       </c>
@@ -7224,7 +7222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>62000</v>
       </c>
@@ -7262,7 +7260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>73500</v>
       </c>
@@ -7300,7 +7298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>38000</v>
       </c>
@@ -7338,7 +7336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>46000</v>
       </c>
@@ -7376,7 +7374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>48000</v>
       </c>
@@ -7414,7 +7412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>52500</v>
       </c>
@@ -7452,7 +7450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>32000</v>
       </c>
@@ -7490,7 +7488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>38000</v>
       </c>
@@ -7528,7 +7526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>46000</v>
       </c>
@@ -7566,7 +7564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>50000</v>
       </c>
@@ -7604,7 +7602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>57500</v>
       </c>
@@ -7642,7 +7640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>70000</v>
       </c>
@@ -7680,7 +7678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>69900</v>
       </c>
@@ -7718,7 +7716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>74500</v>
       </c>
@@ -7756,7 +7754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>42000</v>
       </c>
@@ -7794,7 +7792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>60000</v>
       </c>
@@ -7832,7 +7830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>50000</v>
       </c>
@@ -7870,7 +7868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>58000</v>
       </c>
@@ -7908,7 +7906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>63900</v>
       </c>
@@ -7946,7 +7944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>28000</v>
       </c>
@@ -7984,7 +7982,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>54000</v>
       </c>
@@ -8022,7 +8020,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>44700</v>
       </c>
@@ -8060,7 +8058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>47000</v>
       </c>
@@ -8098,7 +8096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>50000</v>
       </c>
@@ -8136,7 +8134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>57250</v>
       </c>
@@ -8174,7 +8172,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>67000</v>
       </c>
@@ -8212,7 +8210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>52500</v>
       </c>
@@ -8250,7 +8248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>42000</v>
       </c>
@@ -8288,7 +8286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>57500</v>
       </c>
@@ -8326,7 +8324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>33000</v>
       </c>
@@ -8364,7 +8362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>34400</v>
       </c>
@@ -8402,7 +8400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>40000</v>
       </c>
@@ -8440,7 +8438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>40500</v>
       </c>
@@ -8478,7 +8476,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>46500</v>
       </c>
@@ -8516,7 +8514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>52000</v>
       </c>
@@ -8554,7 +8552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>53000</v>
       </c>
@@ -8592,7 +8590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>53900</v>
       </c>
@@ -8630,7 +8628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>50000</v>
       </c>
@@ -8668,7 +8666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>55500</v>
       </c>
@@ -8706,7 +8704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>56000</v>
       </c>
@@ -8744,7 +8742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>60000</v>
       </c>
@@ -8782,7 +8780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>60000</v>
       </c>
@@ -8820,7 +8818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>69500</v>
       </c>
@@ -8858,7 +8856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>72000</v>
       </c>
@@ -8896,7 +8894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>92500</v>
       </c>
@@ -8934,7 +8932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>40500</v>
       </c>
@@ -8972,7 +8970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>42000</v>
       </c>
@@ -9010,7 +9008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>47900</v>
       </c>
@@ -9048,7 +9046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>52000</v>
       </c>
@@ -9086,7 +9084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>62000</v>
       </c>
@@ -9124,7 +9122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>41000</v>
       </c>
@@ -9162,7 +9160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>138300</v>
       </c>
@@ -9200,7 +9198,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>42000</v>
       </c>
@@ -9238,7 +9236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>47000</v>
       </c>
@@ -9276,7 +9274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>64500</v>
       </c>
@@ -9314,7 +9312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>46000</v>
       </c>
@@ -9352,7 +9350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>58000</v>
       </c>
@@ -9390,7 +9388,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>70100</v>
       </c>
@@ -9428,7 +9426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>78500</v>
       </c>
@@ -9466,7 +9464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>87250</v>
       </c>
@@ -9504,7 +9502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>70800</v>
       </c>
@@ -9542,7 +9540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>56000</v>
       </c>
@@ -9580,7 +9578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>48000</v>
       </c>
@@ -9618,7 +9616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>68000</v>
       </c>
@@ -9656,7 +9654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>79000</v>
       </c>
@@ -9694,7 +9692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>80000</v>
       </c>
@@ -9732,7 +9730,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>87000</v>
       </c>
@@ -9770,7 +9768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>25000</v>
       </c>
@@ -9808,7 +9806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>32500</v>
       </c>
@@ -9846,7 +9844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>36000</v>
       </c>
@@ -9884,7 +9882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>42500</v>
       </c>
@@ -9922,7 +9920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>43000</v>
       </c>
@@ -9960,7 +9958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>50000</v>
       </c>
@@ -9998,7 +9996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>26000</v>
       </c>
@@ -10036,7 +10034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>30000</v>
       </c>
@@ -10074,7 +10072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>34000</v>
       </c>
@@ -10112,7 +10110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>52000</v>
       </c>
@@ -10150,7 +10148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>70000</v>
       </c>
@@ -10188,7 +10186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>27000</v>
       </c>
@@ -10226,7 +10224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>32500</v>
       </c>
@@ -10264,7 +10262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>37200</v>
       </c>
@@ -10302,7 +10300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>38000</v>
       </c>
@@ -10340,7 +10338,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>42000</v>
       </c>
@@ -10378,7 +10376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>44500</v>
       </c>
@@ -10416,7 +10414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>45000</v>
       </c>
@@ -10454,7 +10452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>48500</v>
       </c>
@@ -10492,7 +10490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>52000</v>
       </c>
@@ -10530,7 +10528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>53900</v>
       </c>
@@ -10568,7 +10566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>60000</v>
       </c>
@@ -10606,7 +10604,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>61000</v>
       </c>
@@ -10644,7 +10642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>64500</v>
       </c>
@@ -10682,7 +10680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>71000</v>
       </c>
@@ -10720,7 +10718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>75500</v>
       </c>
@@ -10758,7 +10756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>33500</v>
       </c>
@@ -10796,7 +10794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>41000</v>
       </c>
@@ -10834,7 +10832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>41000</v>
       </c>
@@ -10872,7 +10870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>46200</v>
       </c>
@@ -10910,7 +10908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>48500</v>
       </c>
@@ -10948,7 +10946,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>48900</v>
       </c>
@@ -10986,7 +10984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>50000</v>
       </c>
@@ -11024,7 +11022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>51000</v>
       </c>
@@ -11062,7 +11060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>52500</v>
       </c>
@@ -11100,7 +11098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>52500</v>
       </c>
@@ -11138,7 +11136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>54000</v>
       </c>
@@ -11176,7 +11174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>59000</v>
       </c>
@@ -11214,7 +11212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>60000</v>
       </c>
@@ -11252,7 +11250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>63000</v>
       </c>
@@ -11290,7 +11288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>64000</v>
       </c>
@@ -11328,7 +11326,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>64900</v>
       </c>
@@ -11366,7 +11364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>65000</v>
       </c>
@@ -11404,7 +11402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>66000</v>
       </c>
@@ -11442,7 +11440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>70000</v>
       </c>
@@ -11480,7 +11478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>65500</v>
       </c>
@@ -11518,7 +11516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>57000</v>
       </c>
@@ -11556,7 +11554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>52000</v>
       </c>
@@ -11594,7 +11592,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>54000</v>
       </c>
@@ -11632,7 +11630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>74500</v>
       </c>
@@ -11670,7 +11668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>90000</v>
       </c>
@@ -11708,7 +11706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>45000</v>
       </c>
@@ -11746,7 +11744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>45000</v>
       </c>
@@ -11784,7 +11782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>65000</v>
       </c>
@@ -11822,7 +11820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>55000</v>
       </c>
@@ -11860,7 +11858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>62000</v>
       </c>
@@ -11898,7 +11896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>30000</v>
       </c>
@@ -11936,7 +11934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>34000</v>
       </c>
@@ -11974,7 +11972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>38000</v>
       </c>
@@ -12012,7 +12010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>39000</v>
       </c>
@@ -12050,7 +12048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>45000</v>
       </c>
@@ -12088,7 +12086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>47000</v>
       </c>
@@ -12126,7 +12124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>47500</v>
       </c>
@@ -12164,7 +12162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>49000</v>
       </c>
@@ -12202,7 +12200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>50000</v>
       </c>
@@ -12240,7 +12238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>50000</v>
       </c>
@@ -12278,7 +12276,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>52900</v>
       </c>
@@ -12316,7 +12314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>53000</v>
       </c>
@@ -12354,7 +12352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>55000</v>
       </c>
@@ -12392,7 +12390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>56000</v>
       </c>
@@ -12430,7 +12428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>58500</v>
       </c>
@@ -12468,7 +12466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>59500</v>
       </c>
@@ -12506,7 +12504,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>60000</v>
       </c>
@@ -12544,7 +12542,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>64000</v>
       </c>
@@ -12582,7 +12580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>67000</v>
       </c>
@@ -12620,7 +12618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>68100</v>
       </c>
@@ -12658,7 +12656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>70000</v>
       </c>
@@ -12696,7 +12694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>72000</v>
       </c>
@@ -12734,7 +12732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>57500</v>
       </c>
@@ -12772,7 +12770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>69900</v>
       </c>
@@ -12810,7 +12808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>70000</v>
       </c>
@@ -12848,7 +12846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>75000</v>
       </c>
@@ -12886,7 +12884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>76900</v>
       </c>
@@ -12924,7 +12922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>78000</v>
       </c>
@@ -12962,7 +12960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>80000</v>
       </c>
@@ -13000,7 +12998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>82000</v>
       </c>
@@ -13038,7 +13036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>83000</v>
       </c>
@@ -13076,7 +13074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>83000</v>
       </c>
@@ -13114,7 +13112,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>83900</v>
       </c>
@@ -13152,7 +13150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>88500</v>
       </c>
@@ -13190,7 +13188,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>93000</v>
       </c>
@@ -13228,7 +13226,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>98000</v>
       </c>
@@ -13266,7 +13264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>98500</v>
       </c>
@@ -13304,7 +13302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>99000</v>
       </c>
@@ -13342,7 +13340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>101000</v>
       </c>
@@ -13380,7 +13378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>110000</v>
       </c>
@@ -13418,7 +13416,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>115442</v>
       </c>
@@ -13456,7 +13454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>120000</v>
       </c>
@@ -13494,7 +13492,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>124000</v>
       </c>
@@ -13532,7 +13530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>175000</v>
       </c>
@@ -13570,7 +13568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>50000</v>
       </c>
@@ -13608,7 +13606,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>55000</v>
       </c>
@@ -13646,7 +13644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>60000</v>
       </c>
@@ -13684,7 +13682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>61000</v>
       </c>
@@ -13722,7 +13720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>106000</v>
       </c>
@@ -13760,7 +13758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>155000</v>
       </c>
@@ -13798,7 +13796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>141000</v>
       </c>
@@ -13836,7 +13834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>62500</v>
       </c>
@@ -13874,7 +13872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>70000</v>
       </c>
@@ -13912,7 +13910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>73000</v>
       </c>
@@ -13950,7 +13948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>80000</v>
       </c>
@@ -13988,7 +13986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>80000</v>
       </c>
@@ -14026,7 +14024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>88000</v>
       </c>
@@ -14064,7 +14062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>49000</v>
       </c>
@@ -14102,7 +14100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>52000</v>
       </c>
@@ -14140,7 +14138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>59500</v>
       </c>
@@ -14178,7 +14176,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>60000</v>
       </c>
@@ -14216,7 +14214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>64000</v>
       </c>
@@ -14254,7 +14252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>64500</v>
       </c>
@@ -14292,7 +14290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>68500</v>
       </c>
@@ -14330,7 +14328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>78500</v>
       </c>
@@ -14368,7 +14366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>86000</v>
       </c>
@@ -14406,7 +14404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>86900</v>
       </c>
@@ -14444,7 +14442,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>75000</v>
       </c>
@@ -14482,7 +14480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>78000</v>
       </c>
@@ -14520,7 +14518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>95000</v>
       </c>
@@ -14558,7 +14556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>97000</v>
       </c>
@@ -14596,7 +14594,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>107000</v>
       </c>
@@ -14634,7 +14632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>130000</v>
       </c>
@@ -14672,7 +14670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>145000</v>
       </c>
@@ -14710,7 +14708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>175000</v>
       </c>
@@ -14748,7 +14746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>72000</v>
       </c>
@@ -14786,7 +14784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>84900</v>
       </c>
@@ -14824,7 +14822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>99000</v>
       </c>
@@ -14862,7 +14860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>114000</v>
       </c>
@@ -14900,7 +14898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>120000</v>
       </c>
@@ -14938,7 +14936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>145000</v>
       </c>
@@ -14976,7 +14974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>79000</v>
       </c>
@@ -15014,7 +15012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>82000</v>
       </c>
@@ -15052,7 +15050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>85000</v>
       </c>
@@ -15090,7 +15088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>100500</v>
       </c>
@@ -15128,7 +15126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>122000</v>
       </c>
@@ -15166,7 +15164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>126500</v>
       </c>
@@ -15204,7 +15202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>133000</v>
       </c>
@@ -15242,7 +15240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>140000</v>
       </c>
@@ -15280,7 +15278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>190000</v>
       </c>
@@ -15318,7 +15316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>84000</v>
       </c>
@@ -15356,7 +15354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>97000</v>
       </c>
@@ -15394,7 +15392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>103500</v>
       </c>
@@ -15432,7 +15430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>112500</v>
       </c>
@@ -15470,7 +15468,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>140000</v>
       </c>
@@ -15508,7 +15506,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>74700</v>
       </c>
@@ -15546,7 +15544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>78000</v>
       </c>
@@ -15584,7 +15582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>78900</v>
       </c>
@@ -15622,7 +15620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>83900</v>
       </c>
@@ -15660,7 +15658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>85000</v>
       </c>
@@ -15698,7 +15696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>85000</v>
       </c>
@@ -15736,7 +15734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>86000</v>
       </c>
@@ -15774,7 +15772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>86900</v>
       </c>
@@ -15812,7 +15810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>94500</v>
       </c>
@@ -15850,7 +15848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>96000</v>
       </c>
@@ -15888,7 +15886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>106000</v>
       </c>
@@ -15926,7 +15924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>72000</v>
       </c>
@@ -15964,7 +15962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>74500</v>
       </c>
@@ -16002,7 +16000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>77000</v>
       </c>
@@ -16040,7 +16038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>80750</v>
       </c>
@@ -16078,7 +16076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A400">
         <v>82900</v>
       </c>
@@ -16116,7 +16114,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A401">
         <v>85000</v>
       </c>
@@ -16154,7 +16152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A402">
         <v>92500</v>
       </c>
@@ -16192,7 +16190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A403">
         <v>76000</v>
       </c>
@@ -16230,7 +16228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A404">
         <v>77500</v>
       </c>
@@ -16268,7 +16266,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A405">
         <v>80000</v>
       </c>
@@ -16306,7 +16304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A406">
         <v>80000</v>
       </c>
@@ -16344,7 +16342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A407">
         <v>86000</v>
       </c>
@@ -16382,7 +16380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A408">
         <v>87000</v>
       </c>
@@ -16420,7 +16418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A409">
         <v>87500</v>
       </c>
@@ -16458,7 +16456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A410">
         <v>89000</v>
       </c>
@@ -16496,7 +16494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A411">
         <v>89900</v>
       </c>
@@ -16534,7 +16532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A412">
         <v>90000</v>
       </c>
@@ -16572,7 +16570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A413">
         <v>95000</v>
       </c>
@@ -16610,7 +16608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A414">
         <v>112000</v>
       </c>
@@ -16648,7 +16646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A415">
         <v>31900</v>
       </c>
@@ -16686,7 +16684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A416">
         <v>52000</v>
       </c>
@@ -16724,7 +16722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A417">
         <v>90000</v>
       </c>
@@ -16762,7 +16760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A418" s="3">
         <v>100000</v>
       </c>
@@ -16800,7 +16798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A419">
         <v>91700</v>
       </c>
@@ -16838,7 +16836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A420">
         <v>174500</v>
       </c>
@@ -16876,7 +16874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A421">
         <v>94700</v>
       </c>
@@ -16914,7 +16912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A422">
         <v>68000</v>
       </c>
@@ -16952,7 +16950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A423">
         <v>80000</v>
       </c>
@@ -16990,7 +16988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A424">
         <v>61100</v>
       </c>
@@ -17028,7 +17026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A425">
         <v>62900</v>
       </c>
@@ -17066,7 +17064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A426">
         <v>65500</v>
       </c>
@@ -17104,7 +17102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A427">
         <v>66000</v>
       </c>
@@ -17142,7 +17140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A428">
         <v>49500</v>
       </c>
@@ -17180,7 +17178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A429">
         <v>50000</v>
       </c>
@@ -17218,7 +17216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A430">
         <v>53500</v>
       </c>
@@ -17256,7 +17254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A431">
         <v>58550</v>
       </c>
@@ -17294,7 +17292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A432">
         <v>64500</v>
       </c>
@@ -17332,7 +17330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A433">
         <v>65000</v>
       </c>
@@ -17370,7 +17368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A434">
         <v>69000</v>
       </c>
@@ -17408,7 +17406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A435">
         <v>73000</v>
       </c>
@@ -17446,7 +17444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A436">
         <v>75000</v>
       </c>
@@ -17484,7 +17482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A437">
         <v>75000</v>
       </c>
@@ -17522,7 +17520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A438">
         <v>132000</v>
       </c>
@@ -17560,7 +17558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A439">
         <v>60000</v>
       </c>
@@ -17598,7 +17596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A440">
         <v>65000</v>
       </c>
@@ -17636,7 +17634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A441">
         <v>69000</v>
       </c>
@@ -17674,7 +17672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A442">
         <v>51900</v>
       </c>
@@ -17712,7 +17710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A443">
         <v>57000</v>
       </c>
@@ -17750,7 +17748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A444">
         <v>65000</v>
       </c>
@@ -17788,7 +17786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A445">
         <v>79500</v>
       </c>
@@ -17826,7 +17824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A446">
         <v>72500</v>
       </c>
@@ -17864,7 +17862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A447">
         <v>104900</v>
       </c>
@@ -17902,7 +17900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A448">
         <v>114900</v>
       </c>
@@ -17940,7 +17938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A449">
         <v>120000</v>
       </c>
@@ -17978,7 +17976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A450">
         <v>58000</v>
       </c>
@@ -18016,7 +18014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A451">
         <v>67000</v>
       </c>
@@ -18054,7 +18052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A452">
         <v>67000</v>
       </c>
@@ -18092,7 +18090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A453">
         <v>69000</v>
       </c>
@@ -18130,7 +18128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A454">
         <v>73000</v>
       </c>
@@ -18168,7 +18166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A455">
         <v>73500</v>
       </c>
@@ -18206,7 +18204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A456">
         <v>74900</v>
       </c>
@@ -18244,7 +18242,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A457">
         <v>75000</v>
       </c>
@@ -18282,7 +18280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A458">
         <v>79500</v>
       </c>
@@ -18320,7 +18318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A459">
         <v>120900</v>
       </c>
@@ -18358,7 +18356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A460">
         <v>44555</v>
       </c>
@@ -18396,7 +18394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A461">
         <v>47000</v>
       </c>
@@ -18434,7 +18432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A462">
         <v>47600</v>
       </c>
@@ -18472,7 +18470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A463">
         <v>49000</v>
       </c>
@@ -18510,7 +18508,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A464">
         <v>49000</v>
       </c>
@@ -18548,7 +18546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A465">
         <v>49000</v>
       </c>
@@ -18586,7 +18584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A466">
         <v>49500</v>
       </c>
@@ -18624,7 +18622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A467">
         <v>52000</v>
       </c>
@@ -18662,7 +18660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A468">
         <v>54000</v>
       </c>
@@ -18700,7 +18698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A469">
         <v>55000</v>
       </c>
@@ -18738,7 +18736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A470">
         <v>55000</v>
       </c>
@@ -18776,7 +18774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A471">
         <v>56000</v>
       </c>
@@ -18814,7 +18812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A472">
         <v>60000</v>
       </c>
@@ -18852,7 +18850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A473">
         <v>60500</v>
       </c>
@@ -18890,7 +18888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A474">
         <v>50000</v>
       </c>
@@ -18928,7 +18926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A475">
         <v>64900</v>
       </c>
@@ -18966,7 +18964,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A476">
         <v>93000</v>
       </c>
@@ -19004,7 +19002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A477">
         <v>85000</v>
       </c>
@@ -19042,7 +19040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A478">
         <v>61500</v>
       </c>
@@ -19080,7 +19078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A479">
         <v>88500</v>
       </c>
@@ -19118,7 +19116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A480">
         <v>88000</v>
       </c>
@@ -19156,7 +19154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A481">
         <v>89000</v>
       </c>
@@ -19194,7 +19192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A482">
         <v>89500</v>
       </c>
@@ -19232,7 +19230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A483">
         <v>95000</v>
       </c>
@@ -19270,7 +19268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A484">
         <v>95500</v>
       </c>
@@ -19308,7 +19306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A485">
         <v>51500</v>
       </c>
@@ -19346,7 +19344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A486">
         <v>62900</v>
       </c>
@@ -19384,7 +19382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A487">
         <v>118500</v>
       </c>
@@ -19422,7 +19420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A488">
         <v>42900</v>
       </c>
@@ -19460,7 +19458,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A489">
         <v>44100</v>
       </c>
@@ -19498,7 +19496,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A490">
         <v>47000</v>
       </c>
@@ -19536,7 +19534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A491">
         <v>50000</v>
       </c>
@@ -19574,7 +19572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A492">
         <v>50000</v>
       </c>
@@ -19612,7 +19610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A493">
         <v>53000</v>
       </c>
@@ -19650,7 +19648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A494">
         <v>53000</v>
       </c>
@@ -19688,7 +19686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A495">
         <v>54000</v>
       </c>
@@ -19726,7 +19724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A496">
         <v>58500</v>
       </c>
@@ -19764,7 +19762,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A497">
         <v>59000</v>
       </c>
@@ -19802,7 +19800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A498">
         <v>60000</v>
       </c>
@@ -19840,7 +19838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A499">
         <v>62900</v>
       </c>
@@ -19878,7 +19876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A500">
         <v>64000</v>
       </c>
@@ -19916,7 +19914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A501">
         <v>65000</v>
       </c>
@@ -19954,7 +19952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A502">
         <v>67900</v>
       </c>
@@ -19992,7 +19990,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A503">
         <v>68500</v>
       </c>
@@ -20030,7 +20028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A504">
         <v>70000</v>
       </c>
@@ -20068,7 +20066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A505">
         <v>70500</v>
       </c>
@@ -20106,7 +20104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A506">
         <v>71500</v>
       </c>
@@ -20144,7 +20142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A507">
         <v>71900</v>
       </c>
@@ -20182,7 +20180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A508">
         <v>75000</v>
       </c>
@@ -20220,7 +20218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A509">
         <v>75000</v>
       </c>
@@ -20258,7 +20256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A510">
         <v>87000</v>
       </c>
@@ -20296,7 +20294,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A511">
         <v>64000</v>
       </c>
@@ -20334,7 +20332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A512">
         <v>70000</v>
       </c>
@@ -20372,7 +20370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A513">
         <v>47500</v>
       </c>
@@ -20410,7 +20408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A514">
         <v>62600</v>
       </c>
@@ -20448,7 +20446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A515">
         <v>66000</v>
       </c>
@@ -20486,7 +20484,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A516">
         <v>58900</v>
       </c>
@@ -20524,7 +20522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A517">
         <v>53000</v>
       </c>
@@ -20562,7 +20560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A518">
         <v>95000</v>
       </c>
@@ -20600,7 +20598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A519">
         <v>96500</v>
       </c>
@@ -20638,7 +20636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A520">
         <v>101000</v>
       </c>
@@ -20676,7 +20674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A521">
         <v>102000</v>
       </c>
@@ -20714,7 +20712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A522">
         <v>103000</v>
       </c>
@@ -20752,7 +20750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A523">
         <v>105000</v>
       </c>
@@ -20790,7 +20788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A524">
         <v>108000</v>
       </c>
@@ -20828,7 +20826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A525">
         <v>110000</v>
       </c>
@@ -20866,7 +20864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A526">
         <v>113000</v>
       </c>
@@ -20904,7 +20902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A527">
         <v>120000</v>
       </c>
@@ -20942,7 +20940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A528">
         <v>105000</v>
       </c>
@@ -20980,7 +20978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A529">
         <v>106000</v>
       </c>
@@ -21018,7 +21016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A530">
         <v>107500</v>
       </c>
@@ -21056,7 +21054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A531">
         <v>108000</v>
       </c>
@@ -21094,7 +21092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A532">
         <v>113750</v>
       </c>
@@ -21132,7 +21130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A533">
         <v>120000</v>
       </c>
@@ -21170,7 +21168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A534">
         <v>70000</v>
       </c>
@@ -21208,7 +21206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A535">
         <v>71000</v>
       </c>
@@ -21246,7 +21244,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A536">
         <v>82000</v>
       </c>
@@ -21284,7 +21282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A537">
         <v>82000</v>
       </c>
@@ -21322,7 +21320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A538">
         <v>82500</v>
       </c>
@@ -21360,7 +21358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A539">
         <v>83000</v>
       </c>
@@ -21398,7 +21396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A540">
         <v>84000</v>
       </c>
@@ -21436,7 +21434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A541">
         <v>85000</v>
       </c>
@@ -21474,7 +21472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A542">
         <v>85000</v>
       </c>
@@ -21512,7 +21510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A543">
         <v>91500</v>
       </c>
@@ -21550,7 +21548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A544">
         <v>94000</v>
       </c>
@@ -21588,7 +21586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A545">
         <v>103000</v>
       </c>
@@ -21626,7 +21624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A546">
         <v>105000</v>
       </c>
@@ -21664,7 +21662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A547">
         <v>105000</v>
       </c>
@@ -21713,16 +21711,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.64453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.52734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -21739,7 +21737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="7">
         <v>2016</v>
       </c>
@@ -21756,10 +21754,10 @@
         <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="10">
         <v>2016</v>
       </c>
@@ -21773,10 +21771,10 @@
         <v>185</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>2016</v>
       </c>
@@ -21790,10 +21788,10 @@
         <v>211</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" s="10">
         <v>2016</v>
       </c>
@@ -21807,13 +21805,13 @@
         <v>147</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>2016</v>
       </c>
@@ -21827,10 +21825,10 @@
         <v>200</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" s="10">
         <v>2017</v>
       </c>
@@ -21847,7 +21845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>2017</v>
       </c>
@@ -21861,10 +21859,10 @@
         <v>212</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" s="10">
         <v>2017</v>
       </c>
@@ -21878,10 +21876,10 @@
         <v>187</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>2017</v>
       </c>
@@ -21895,10 +21893,10 @@
         <v>193</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" s="10">
         <v>2017</v>
       </c>
@@ -21912,10 +21910,10 @@
         <v>206</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>2018</v>
       </c>
@@ -21932,7 +21930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" s="10">
         <v>2018</v>
       </c>
@@ -21946,10 +21944,10 @@
         <v>216</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>2018</v>
       </c>
@@ -21963,10 +21961,10 @@
         <v>135</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" s="10">
         <v>2018</v>
       </c>
@@ -21980,10 +21978,10 @@
         <v>155</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" s="13">
         <v>2018</v>
       </c>
@@ -21997,7 +21995,7 @@
         <v>166</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
